--- a/import/sample_data.xlsx
+++ b/import/sample_data.xlsx
@@ -13,6 +13,7 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sport!$A$1:$D$141</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sport!$A$1:$D$141</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Sport!$A$1:$D$141</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="24">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -86,26 +87,28 @@
     <t xml:space="preserve">zeus</t>
   </si>
   <si>
-    <t xml:space="preserve">40min crosser I10</t>
+    <t xml:space="preserve">40min crosser</t>
   </si>
   <si>
-    <t xml:space="preserve">25min crosser I10</t>
+    <t xml:space="preserve">level 10</t>
   </si>
   <si>
-    <t xml:space="preserve">30min crosser I10</t>
+    <t xml:space="preserve">25min crosser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30min crosser</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-407];[RED]\-#,##0.00\ [$€-407]"/>
-    <numFmt numFmtId="166" formatCode="DDD&quot;, &quot;D/\ MMMM\ YYYY"/>
-    <numFmt numFmtId="167" formatCode="0.00"/>
+    <numFmt numFmtId="165" formatCode="DDD&quot;, &quot;D/\ MMMM\ YYYY"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -127,16 +130,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <i val="true"/>
-      <u val="single"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -252,7 +245,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -276,20 +269,17 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="109">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -297,15 +287,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -313,7 +303,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -321,7 +311,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -329,15 +319,15 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -349,15 +339,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -365,7 +355,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -373,7 +363,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -381,7 +371,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -389,7 +379,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -397,7 +387,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -405,7 +395,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -413,7 +403,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -421,7 +411,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -429,7 +419,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -437,7 +427,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -445,7 +435,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -453,7 +443,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -461,7 +451,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -469,7 +459,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -477,7 +467,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -485,7 +475,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -493,7 +483,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -501,11 +491,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -513,7 +503,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -521,7 +511,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -529,7 +519,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -537,7 +527,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -545,7 +535,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -553,11 +543,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -565,7 +555,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -573,7 +563,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -581,7 +571,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -589,7 +579,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -597,7 +587,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -605,7 +595,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -613,7 +603,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -621,7 +611,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -629,7 +619,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -637,7 +627,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -645,7 +635,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -653,7 +643,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -661,15 +651,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -677,15 +667,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -693,15 +683,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -709,23 +699,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Ergebnis 2" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -801,15 +790,15 @@
   </sheetPr>
   <dimension ref="A1:D204"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A157" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C170" activeCellId="0" sqref="C170"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D142" activeCellId="0" sqref="D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="17.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="30.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="17.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="18.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.57"/>
   </cols>
@@ -2472,7 +2461,7 @@
       <c r="C140" s="91"/>
       <c r="D140" s="92"/>
     </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="93" t="n">
         <v>44332</v>
       </c>
@@ -2482,43 +2471,51 @@
       <c r="C141" s="95" t="n">
         <v>5.79</v>
       </c>
-      <c r="D141" s="96"/>
-    </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D141" s="96" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="97" t="n">
         <v>44333</v>
       </c>
       <c r="B142" s="98" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C142" s="99" t="n">
         <v>3.51</v>
       </c>
-      <c r="D142" s="100"/>
-    </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D142" s="100" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="101" t="n">
         <v>44334</v>
       </c>
       <c r="B143" s="102" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C143" s="103" t="n">
         <v>4.39</v>
       </c>
-      <c r="D143" s="104"/>
-    </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D143" s="104" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="101" t="n">
         <v>44335</v>
       </c>
       <c r="B144" s="102" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C144" s="103" t="n">
         <v>4.5</v>
       </c>
-      <c r="D144" s="104"/>
+      <c r="D144" s="104" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="101" t="n">
@@ -2528,17 +2525,19 @@
       <c r="C145" s="103"/>
       <c r="D145" s="104"/>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="101" t="n">
         <v>44337</v>
       </c>
       <c r="B146" s="102" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C146" s="103" t="n">
         <v>4.7</v>
       </c>
-      <c r="D146" s="104"/>
+      <c r="D146" s="104" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="101" t="n">
@@ -2548,17 +2547,19 @@
       <c r="C147" s="103"/>
       <c r="D147" s="104"/>
     </row>
-    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="105" t="n">
         <v>44339</v>
       </c>
       <c r="B148" s="106" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C148" s="107" t="n">
         <v>4.52</v>
       </c>
-      <c r="D148" s="108"/>
+      <c r="D148" s="108" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="47" t="n">
